--- a/tp grupal/relaciones.xlsx
+++ b/tp grupal/relaciones.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t xml:space="preserve">tabla</t>
   </si>
@@ -36,6 +36,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">usuario(</t>
     </r>
@@ -45,6 +46,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">username, email, </t>
     </r>
@@ -53,8 +55,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">fecha_de_alta, fecha_de_nacimiento, edad, nombre, apellido)</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fecha_de_alta, fecha_de_nacimiento, edad, nombre, apellido, </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
@@ -79,6 +101,9 @@
     <t xml:space="preserve">apellido</t>
   </si>
   <si>
+    <t xml:space="preserve">pais</t>
+  </si>
+  <si>
     <t xml:space="preserve">publicacion</t>
   </si>
   <si>
@@ -105,6 +130,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">publicacion(</t>
     </r>
@@ -114,6 +140,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id_publicacion,</t>
     </r>
@@ -122,8 +149,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad)</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
@@ -138,6 +185,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">texto(</t>
     </r>
@@ -147,6 +195,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id_publicacion,</t>
     </r>
@@ -155,8 +204,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad, texto)</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ,texto)</t>
     </r>
   </si>
   <si>
@@ -171,6 +240,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">imagen(</t>
     </r>
@@ -180,6 +250,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id_publicacion,</t>
     </r>
@@ -188,8 +259,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad, resolucion_imagen)</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, resolucion_imagen)</t>
     </r>
   </si>
   <si>
@@ -204,6 +295,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">video(</t>
     </r>
@@ -213,6 +305,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id_publicacion,</t>
     </r>
@@ -221,19 +314,37 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad, resolucion_video)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">pais</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> contenido, cant_likes, cant_comentarios, url, visibilidad,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, resolucion_video)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">pais(</t>
     </r>
@@ -243,6 +354,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">nombre</t>
     </r>
@@ -251,6 +363,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -262,10 +375,31 @@
     <t xml:space="preserve">id_comentario</t>
   </si>
   <si>
-    <t xml:space="preserve">comentario(id_comentario, contenido)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usuario_usuario</t>
+    <t xml:space="preserve">id_publicacion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">comentario(id_comentario, contenido, </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">username, email, id_publicacion)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">amistad</t>
   </si>
   <si>
     <t xml:space="preserve">fecha_de_Inicio</t>
@@ -276,32 +410,32 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">usuario_usuario(</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">username, username, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">amistad(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">username,email, username,email, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fecha_de_inicio)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">usuario_publicacion(reaccionar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_publicacion</t>
+    <t xml:space="preserve">reaccion</t>
   </si>
   <si>
     <t xml:space="preserve">fecha_hora</t>
@@ -312,15 +446,17 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">usuario_reacciona_publicacion(</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">reaccion(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">username, email, id_publicacion,</t>
     </r>
@@ -329,12 +465,10 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> fecha_hora)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">usuario_publicacion(posteo)</t>
   </si>
 </sst>
 </file>
@@ -349,6 +483,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -370,6 +505,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,12 +550,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -546,261 +686,287 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="81.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="89.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="0" t="s">
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>33</v>
+      <c r="A25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
+      <c r="A28" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>40</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
